--- a/webroot/uploads/files/cseenew.xlsx
+++ b/webroot/uploads/files/cseenew.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="128">
   <si>
     <t>THE NATIONAL EXAMINATIONS COUNCIL OF TANZANIA</t>
   </si>
@@ -36,9 +36,6 @@
     <t>FORM REG1-CSEE</t>
   </si>
   <si>
-    <t>FORM</t>
-  </si>
-  <si>
     <t>IV</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>ALTERNATIVE(√)</t>
   </si>
   <si>
-    <t>ACTUAL(√)</t>
-  </si>
-  <si>
     <t>2A</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>PHYSICS</t>
   </si>
   <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>CHEMISTRY</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>NAME OF DEPOSITOR</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Account Details / Deposit  Details</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
   </si>
   <si>
     <t>SURNAME</t>
-  </si>
-  <si>
-    <t>DD</t>
   </si>
   <si>
     <t>MM</t>
@@ -169,9 +154,6 @@
   </si>
   <si>
     <t>SEX</t>
-  </si>
-  <si>
-    <t>DATE OF BIRTH</t>
   </si>
   <si>
     <t>GENERAL   SUBJECTS(SUBJECTS CODES)</t>
@@ -759,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,324 +753,294 @@
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.109375" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" customWidth="1"/>
-    <col min="15" max="15" width="3.6640625" customWidth="1"/>
-    <col min="16" max="16" width="3.44140625" customWidth="1"/>
-    <col min="17" max="17" width="3.33203125" customWidth="1"/>
-    <col min="18" max="18" width="3.5546875" customWidth="1"/>
-    <col min="19" max="19" width="4.109375" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" customWidth="1"/>
-    <col min="21" max="21" width="4" customWidth="1"/>
-    <col min="22" max="22" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="3.5546875" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="4" customWidth="1"/>
+    <col min="21" max="21" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
         <v>7</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="U3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="W4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="O5" t="s">
         <v>15</v>
       </c>
-      <c r="P5" t="s">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
       </c>
       <c r="C6">
         <v>754665576</v>
       </c>
       <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
+      <c r="P6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>21</v>
       </c>
-      <c r="R6" t="s">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>22</v>
-      </c>
-      <c r="S6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
       </c>
       <c r="C7">
         <v>625781784</v>
       </c>
       <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7">
+        <v>27</v>
+      </c>
+      <c r="R7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <v>27</v>
+      </c>
+      <c r="R8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O9">
+        <v>27</v>
+      </c>
+      <c r="R9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="P7">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="S7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8">
-        <v>27</v>
-      </c>
-      <c r="S8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
+      <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9">
-        <v>27</v>
-      </c>
-      <c r="S9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="O10" t="s">
+      <c r="I11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s">
+      <c r="R11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" t="s">
+      <c r="V11" t="s">
         <v>36</v>
       </c>
-      <c r="J11" t="s">
+      <c r="X11" t="s">
         <v>37</v>
       </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
         <v>2018</v>
       </c>
-      <c r="L12" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12">
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12">
         <v>1750000</v>
       </c>
-      <c r="W12">
+      <c r="V12">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="W17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
+      <c r="X17" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
         <v>33</v>
       </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" t="s">
-        <v>51</v>
-      </c>
-      <c r="V17" t="s">
-        <v>52</v>
-      </c>
-      <c r="W17" t="s">
-        <v>53</v>
-      </c>
-      <c r="X17" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1097,72 +1049,69 @@
         <v>2016</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>1999</v>
       </c>
       <c r="K19">
-        <v>1999</v>
+        <v>11</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19">
-        <v>33</v>
-      </c>
-      <c r="U19">
         <v>41</v>
       </c>
-      <c r="V19" t="s">
-        <v>132</v>
+      <c r="U19" t="s">
+        <v>126</v>
+      </c>
+      <c r="V19">
+        <v>50000</v>
       </c>
       <c r="W19">
-        <v>50000</v>
-      </c>
-      <c r="X19">
         <v>765100291</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1171,69 +1120,66 @@
         <v>2016</v>
       </c>
       <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
         <v>59</v>
       </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" t="s">
-        <v>65</v>
-      </c>
       <c r="I20">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1997</v>
       </c>
       <c r="K20">
-        <v>1997</v>
+        <v>11</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O20">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S20">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T20">
-        <v>33</v>
-      </c>
-      <c r="U20">
         <v>41</v>
       </c>
+      <c r="V20">
+        <v>50000</v>
+      </c>
       <c r="W20">
-        <v>50000</v>
-      </c>
-      <c r="X20">
         <v>765155359</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -1242,69 +1188,66 @@
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>1999</v>
       </c>
       <c r="K21">
-        <v>1999</v>
+        <v>11</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O21">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T21">
-        <v>33</v>
-      </c>
-      <c r="U21">
         <v>41</v>
       </c>
+      <c r="V21">
+        <v>50000</v>
+      </c>
       <c r="W21">
-        <v>50000</v>
-      </c>
-      <c r="X21">
         <v>759287805</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -1313,69 +1256,66 @@
         <v>2016</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="K22">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T22">
-        <v>33</v>
-      </c>
-      <c r="U22">
         <v>41</v>
       </c>
+      <c r="V22">
+        <v>50000</v>
+      </c>
       <c r="W22">
-        <v>50000</v>
-      </c>
-      <c r="X22">
         <v>787252890</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1384,69 +1324,66 @@
         <v>2016</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J23">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="K23">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O23">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S23">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T23">
-        <v>33</v>
-      </c>
-      <c r="U23">
         <v>41</v>
       </c>
+      <c r="V23">
+        <v>50000</v>
+      </c>
       <c r="W23">
-        <v>50000</v>
-      </c>
-      <c r="X23">
         <v>757736259</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -1455,69 +1392,66 @@
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>10</v>
+        <v>1999</v>
       </c>
       <c r="K24">
-        <v>1999</v>
+        <v>11</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O24">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T24">
-        <v>33</v>
-      </c>
-      <c r="U24">
         <v>41</v>
       </c>
+      <c r="V24">
+        <v>50000</v>
+      </c>
       <c r="W24">
-        <v>50000</v>
-      </c>
-      <c r="X24">
         <v>755551340</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -1526,69 +1460,66 @@
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J25">
-        <v>11</v>
+        <v>1999</v>
       </c>
       <c r="K25">
-        <v>1999</v>
+        <v>11</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O25">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T25">
-        <v>33</v>
-      </c>
-      <c r="U25">
         <v>41</v>
       </c>
+      <c r="V25">
+        <v>50000</v>
+      </c>
       <c r="W25">
-        <v>50000</v>
-      </c>
-      <c r="X25">
         <v>785189874</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -1597,69 +1528,66 @@
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I26">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>2001</v>
       </c>
       <c r="K26">
-        <v>2001</v>
+        <v>11</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O26">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R26">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S26">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T26">
-        <v>33</v>
-      </c>
-      <c r="U26">
         <v>41</v>
       </c>
+      <c r="V26">
+        <v>50000</v>
+      </c>
       <c r="W26">
-        <v>50000</v>
-      </c>
-      <c r="X26">
         <v>715330589</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>14</v>
@@ -1668,69 +1596,66 @@
         <v>2016</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>1998</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <v>12</v>
+      </c>
+      <c r="M27">
+        <v>13</v>
+      </c>
+      <c r="N27">
         <v>14</v>
       </c>
-      <c r="J27">
-        <v>11</v>
-      </c>
-      <c r="K27">
-        <v>1998</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>12</v>
-      </c>
-      <c r="N27">
-        <v>13</v>
-      </c>
       <c r="O27">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T27">
-        <v>33</v>
-      </c>
-      <c r="U27">
         <v>41</v>
       </c>
+      <c r="V27">
+        <v>50000</v>
+      </c>
       <c r="W27">
-        <v>50000</v>
-      </c>
-      <c r="X27">
         <v>753714008</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -1739,69 +1664,66 @@
         <v>2016</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>2000</v>
       </c>
       <c r="K28">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O28">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R28">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S28">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T28">
-        <v>33</v>
-      </c>
-      <c r="U28">
         <v>41</v>
       </c>
+      <c r="V28">
+        <v>50000</v>
+      </c>
       <c r="W28">
-        <v>50000</v>
-      </c>
-      <c r="X28">
         <v>768379389</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -1810,69 +1732,66 @@
         <v>2016</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>2000</v>
+      </c>
+      <c r="K29">
+        <v>11</v>
+      </c>
+      <c r="L29">
+        <v>12</v>
+      </c>
+      <c r="M29">
+        <v>13</v>
+      </c>
+      <c r="N29">
+        <v>14</v>
+      </c>
+      <c r="O29">
         <v>21</v>
       </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>2000</v>
-      </c>
-      <c r="L29">
-        <v>11</v>
-      </c>
-      <c r="M29">
-        <v>12</v>
-      </c>
-      <c r="N29">
-        <v>13</v>
-      </c>
-      <c r="O29">
-        <v>14</v>
-      </c>
       <c r="P29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R29">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T29">
-        <v>33</v>
-      </c>
-      <c r="U29">
         <v>41</v>
       </c>
+      <c r="V29">
+        <v>50000</v>
+      </c>
       <c r="W29">
-        <v>50000</v>
-      </c>
-      <c r="X29">
         <v>754852725</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>17</v>
@@ -1881,69 +1800,66 @@
         <v>2016</v>
       </c>
       <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
         <v>59</v>
       </c>
-      <c r="F30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" t="s">
-        <v>65</v>
-      </c>
       <c r="I30">
         <v>11</v>
       </c>
       <c r="J30">
-        <v>11</v>
+        <v>2000</v>
       </c>
       <c r="K30">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O30">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T30">
-        <v>33</v>
-      </c>
-      <c r="U30">
         <v>41</v>
       </c>
+      <c r="V30">
+        <v>50000</v>
+      </c>
       <c r="W30">
-        <v>50000</v>
-      </c>
-      <c r="X30">
         <v>756994977</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>18</v>
@@ -1952,69 +1868,66 @@
         <v>2016</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="K31">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="L31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O31">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R31">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T31">
-        <v>33</v>
-      </c>
-      <c r="U31">
         <v>41</v>
       </c>
+      <c r="V31">
+        <v>50000</v>
+      </c>
       <c r="W31">
-        <v>50000</v>
-      </c>
-      <c r="X31">
         <v>756353210</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>19</v>
@@ -2023,69 +1936,66 @@
         <v>2016</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I32">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="K32">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O32">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S32">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T32">
-        <v>33</v>
-      </c>
-      <c r="U32">
         <v>41</v>
       </c>
+      <c r="V32">
+        <v>50000</v>
+      </c>
       <c r="W32">
-        <v>50000</v>
-      </c>
-      <c r="X32">
         <v>754648060</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>23</v>
@@ -2094,69 +2004,66 @@
         <v>2016</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>1998</v>
+      </c>
+      <c r="K33">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>12</v>
+      </c>
+      <c r="M33">
         <v>13</v>
       </c>
-      <c r="J33">
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <v>1998</v>
-      </c>
-      <c r="L33">
-        <v>11</v>
-      </c>
-      <c r="M33">
-        <v>12</v>
-      </c>
       <c r="N33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O33">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T33">
-        <v>33</v>
-      </c>
-      <c r="U33">
         <v>41</v>
       </c>
+      <c r="V33">
+        <v>50000</v>
+      </c>
       <c r="W33">
-        <v>50000</v>
-      </c>
-      <c r="X33">
         <v>757157624</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>25</v>
@@ -2165,69 +2072,66 @@
         <v>2016</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I34">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>2000</v>
+      </c>
+      <c r="K34">
+        <v>11</v>
+      </c>
+      <c r="L34">
+        <v>12</v>
+      </c>
+      <c r="M34">
+        <v>13</v>
+      </c>
+      <c r="N34">
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>21</v>
+      </c>
+      <c r="P34">
         <v>22</v>
       </c>
-      <c r="J34">
-        <v>8</v>
-      </c>
-      <c r="K34">
-        <v>2000</v>
-      </c>
-      <c r="L34">
-        <v>11</v>
-      </c>
-      <c r="M34">
-        <v>12</v>
-      </c>
-      <c r="N34">
-        <v>13</v>
-      </c>
-      <c r="O34">
-        <v>14</v>
-      </c>
-      <c r="P34">
-        <v>21</v>
-      </c>
       <c r="Q34">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T34">
-        <v>33</v>
-      </c>
-      <c r="U34">
         <v>41</v>
       </c>
+      <c r="V34">
+        <v>50000</v>
+      </c>
       <c r="W34">
-        <v>50000</v>
-      </c>
-      <c r="X34">
         <v>764744461</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>26</v>
@@ -2236,69 +2140,66 @@
         <v>2016</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J35">
-        <v>7</v>
+        <v>2001</v>
       </c>
       <c r="K35">
-        <v>2001</v>
+        <v>11</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O35">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S35">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T35">
-        <v>33</v>
-      </c>
-      <c r="U35">
         <v>41</v>
       </c>
+      <c r="V35">
+        <v>50000</v>
+      </c>
       <c r="W35">
-        <v>50000</v>
-      </c>
-      <c r="X35">
         <v>752810999</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>28</v>
@@ -2307,69 +2208,66 @@
         <v>2016</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H36" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J36">
-        <v>11</v>
+        <v>1999</v>
       </c>
       <c r="K36">
-        <v>1999</v>
+        <v>11</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N36">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O36">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R36">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S36">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T36">
-        <v>33</v>
-      </c>
-      <c r="U36">
         <v>41</v>
       </c>
+      <c r="V36">
+        <v>50000</v>
+      </c>
       <c r="W36">
-        <v>50000</v>
-      </c>
-      <c r="X36">
         <v>769623461</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>29</v>
@@ -2378,69 +2276,66 @@
         <v>2016</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H37" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I37">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>1999</v>
       </c>
       <c r="K37">
-        <v>1999</v>
+        <v>11</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O37">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S37">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T37">
-        <v>33</v>
-      </c>
-      <c r="U37">
         <v>41</v>
       </c>
+      <c r="V37">
+        <v>50000</v>
+      </c>
       <c r="W37">
-        <v>50000</v>
-      </c>
-      <c r="X37">
         <v>784167205</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C38">
         <v>24</v>
@@ -2449,69 +2344,66 @@
         <v>2016</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I38">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="K38">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O38">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P38">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R38">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S38">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T38">
-        <v>33</v>
-      </c>
-      <c r="U38">
         <v>41</v>
       </c>
+      <c r="V38">
+        <v>50000</v>
+      </c>
       <c r="W38">
-        <v>50000</v>
-      </c>
-      <c r="X38">
         <v>763339592</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>32</v>
@@ -2520,69 +2412,66 @@
         <v>2016</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H39" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>1999</v>
       </c>
       <c r="K39">
-        <v>1999</v>
+        <v>11</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O39">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R39">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S39">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T39">
-        <v>33</v>
-      </c>
-      <c r="U39">
         <v>41</v>
       </c>
+      <c r="V39">
+        <v>50000</v>
+      </c>
       <c r="W39">
-        <v>50000</v>
-      </c>
-      <c r="X39">
         <v>753465197</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>36</v>
@@ -2591,69 +2480,66 @@
         <v>2016</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>2001</v>
+      </c>
+      <c r="K40">
+        <v>11</v>
+      </c>
+      <c r="L40">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>14</v>
+      </c>
+      <c r="O40">
         <v>21</v>
       </c>
-      <c r="J40">
-        <v>3</v>
-      </c>
-      <c r="K40">
-        <v>2001</v>
-      </c>
-      <c r="L40">
-        <v>11</v>
-      </c>
-      <c r="M40">
-        <v>12</v>
-      </c>
-      <c r="N40">
-        <v>13</v>
-      </c>
-      <c r="O40">
-        <v>14</v>
-      </c>
       <c r="P40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q40">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R40">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S40">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T40">
-        <v>33</v>
-      </c>
-      <c r="U40">
         <v>41</v>
       </c>
+      <c r="V40">
+        <v>50000</v>
+      </c>
       <c r="W40">
-        <v>50000</v>
-      </c>
-      <c r="X40">
         <v>755554961</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>37</v>
@@ -2662,69 +2548,66 @@
         <v>2016</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I41">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>1998</v>
       </c>
       <c r="K41">
-        <v>1998</v>
+        <v>11</v>
       </c>
       <c r="L41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O41">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P41">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q41">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R41">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S41">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T41">
-        <v>33</v>
-      </c>
-      <c r="U41">
         <v>41</v>
       </c>
+      <c r="V41">
+        <v>50000</v>
+      </c>
       <c r="W41">
-        <v>50000</v>
-      </c>
-      <c r="X41">
         <v>752820687</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>39</v>
@@ -2733,69 +2616,66 @@
         <v>2016</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I42">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1999</v>
       </c>
       <c r="K42">
-        <v>1999</v>
+        <v>11</v>
       </c>
       <c r="L42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N42">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O42">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q42">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R42">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S42">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T42">
-        <v>33</v>
-      </c>
-      <c r="U42">
         <v>41</v>
       </c>
+      <c r="V42">
+        <v>50000</v>
+      </c>
       <c r="W42">
-        <v>50000</v>
-      </c>
-      <c r="X42">
         <v>787763229</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>41</v>
@@ -2804,69 +2684,66 @@
         <v>2016</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H43" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I43">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="K43">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="L43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O43">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P43">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R43">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S43">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T43">
-        <v>33</v>
-      </c>
-      <c r="U43">
         <v>41</v>
       </c>
+      <c r="V43">
+        <v>50000</v>
+      </c>
       <c r="W43">
-        <v>50000</v>
-      </c>
-      <c r="X43">
         <v>682628766</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>44</v>
@@ -2875,69 +2752,66 @@
         <v>2016</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I44">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="K44">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="L44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O44">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P44">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R44">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S44">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T44">
-        <v>33</v>
-      </c>
-      <c r="U44">
         <v>41</v>
       </c>
+      <c r="V44">
+        <v>50000</v>
+      </c>
       <c r="W44">
-        <v>50000</v>
-      </c>
-      <c r="X44">
         <v>783809995</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>45</v>
@@ -2946,60 +2820,57 @@
         <v>2016</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H45" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>1999</v>
+      </c>
+      <c r="K45">
+        <v>11</v>
+      </c>
+      <c r="L45">
+        <v>12</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>14</v>
+      </c>
+      <c r="O45">
         <v>21</v>
       </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45">
-        <v>1999</v>
-      </c>
-      <c r="L45">
-        <v>11</v>
-      </c>
-      <c r="M45">
-        <v>12</v>
-      </c>
-      <c r="N45">
-        <v>13</v>
-      </c>
-      <c r="O45">
-        <v>14</v>
-      </c>
       <c r="P45">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R45">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S45">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T45">
-        <v>33</v>
-      </c>
-      <c r="U45">
         <v>41</v>
       </c>
+      <c r="V45">
+        <v>50000</v>
+      </c>
       <c r="W45">
-        <v>50000</v>
-      </c>
-      <c r="X45">
         <v>765780660</v>
       </c>
     </row>
